--- a/Clean data sheets/Egg number and size by bundle.xlsx
+++ b/Clean data sheets/Egg number and size by bundle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21-Sp22)/Clean data sheets all weeks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Harfy/Box Sync/Barott lab/Data/Ben G. Data and Other Files/Data/N. vectensis OA experiment (F21–Sp22)/Clean data sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D25BB06-4A0C-F946-A33E-2E0B68F79262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0333E1F4-E52E-7743-B162-797A76FD0228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1500" windowWidth="24640" windowHeight="13240" xr2:uid="{6B6E8737-F2E7-8543-B4B4-1922CB0D85FD}"/>
   </bookViews>
@@ -47,9 +47,6 @@
     <t>Eggs</t>
   </si>
   <si>
-    <t>Control</t>
-  </si>
-  <si>
     <t>Week 7</t>
   </si>
   <si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Ambient</t>
   </si>
 </sst>
 </file>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B188184D-4249-3C4E-8866-10AC46DD50BD}">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="G74" sqref="G74"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -438,10 +438,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0.18596153900000001</v>
@@ -452,10 +452,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>0.191</v>
@@ -466,10 +466,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>0.178076923</v>
@@ -480,10 +480,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0.18634615400000001</v>
@@ -494,10 +494,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>0.19507692300000001</v>
@@ -508,10 +508,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>0.197346154</v>
@@ -522,10 +522,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
         <v>0.18665384600000001</v>
@@ -536,10 +536,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>0.18142307699999999</v>
@@ -550,10 +550,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>0.18153846200000001</v>
@@ -564,10 +564,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>0.18103846200000001</v>
@@ -578,10 +578,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>0.19688461500000001</v>
@@ -592,10 +592,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13">
         <v>0.16957692299999999</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
         <v>0.16930769200000001</v>
@@ -620,10 +620,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>0.16965625000000001</v>
@@ -634,10 +634,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>0.18353333299999999</v>
@@ -648,10 +648,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17">
         <v>0.16396153899999999</v>
@@ -662,10 +662,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>0.17792307700000001</v>
@@ -676,10 +676,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>0.16938461499999999</v>
@@ -690,10 +690,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20">
         <v>0.187307692</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>0.190807692</v>
@@ -718,10 +718,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>0.197230769</v>
@@ -732,10 +732,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23">
         <v>0.17780769199999999</v>
@@ -746,10 +746,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <v>0.18292307699999999</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25">
         <v>0.19015384599999999</v>
@@ -774,10 +774,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>0.18661538499999999</v>
@@ -788,10 +788,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>0.17842307700000001</v>
@@ -802,10 +802,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>0.18820000000000001</v>
@@ -816,10 +816,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29">
         <v>0.18552173899999999</v>
@@ -830,10 +830,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C30">
         <v>0.1936667</v>
@@ -844,10 +844,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31">
         <v>0.17869230799999999</v>
@@ -858,10 +858,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C32">
         <v>0.18290000000000001</v>
@@ -872,10 +872,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33">
         <v>0.178533</v>
@@ -886,10 +886,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>0.184</v>
@@ -900,10 +900,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35">
         <v>0.17833299999999999</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C36">
         <v>0.17043330000000001</v>
@@ -928,10 +928,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37">
         <v>0.1845</v>
@@ -942,10 +942,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38">
         <v>0.17896666999999999</v>
@@ -956,10 +956,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39">
         <v>0.1792</v>
@@ -970,10 +970,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>0.17244999999999999</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41">
         <v>0.1916667</v>
@@ -998,10 +998,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C42">
         <v>0.18853300000000001</v>
@@ -1012,10 +1012,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43">
         <v>0.18553330000000001</v>
@@ -1026,10 +1026,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C44">
         <v>0.19520000000000001</v>
@@ -1040,10 +1040,10 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45">
         <v>0.18123330000000001</v>
@@ -1054,10 +1054,10 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <v>0.18213299999999999</v>
@@ -1068,10 +1068,10 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47">
         <v>0.1835667</v>
@@ -1082,10 +1082,10 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C48">
         <v>0.18103330000000001</v>
@@ -1096,10 +1096,10 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49">
         <v>0.18826670000000001</v>
@@ -1110,10 +1110,10 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C50">
         <v>0.19070000000000001</v>
@@ -1124,10 +1124,10 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51">
         <v>0.1929333</v>
@@ -1138,10 +1138,10 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C52">
         <v>0.19599999999999998</v>
@@ -1152,10 +1152,10 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C53">
         <v>0.19093333333333337</v>
@@ -1166,10 +1166,10 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>0.19486666666666666</v>
@@ -1180,10 +1180,10 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C55">
         <v>0.16860000000000003</v>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C56">
         <v>0.1958333333333333</v>
@@ -1208,10 +1208,10 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C57">
         <v>0.18916666666666665</v>
@@ -1222,10 +1222,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C58">
         <v>0.16679999999999998</v>
@@ -1236,10 +1236,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C59">
         <v>0.18219999999999997</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C60">
         <v>0.18409999999999999</v>
@@ -1264,10 +1264,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C61">
         <v>0.19573333333333329</v>
@@ -1278,10 +1278,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C62">
         <v>0.17556666666666662</v>
@@ -1292,10 +1292,10 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C63">
         <v>0.1656</v>
@@ -1306,10 +1306,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C64">
         <v>0.18533333333333332</v>
@@ -1320,10 +1320,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C65">
         <v>0.1764333333333333</v>
@@ -1334,10 +1334,10 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C66">
         <v>0.2032333333333334</v>
@@ -1348,10 +1348,10 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C67">
         <v>0.19223333333333334</v>
@@ -1362,10 +1362,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C68">
         <v>0.18989999999999999</v>
@@ -1376,10 +1376,10 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C69">
         <v>0.18813333333333337</v>
@@ -1390,10 +1390,10 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70">
         <v>0.18043333333333331</v>
@@ -1404,10 +1404,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C71">
         <v>0.1926333333333333</v>
@@ -1418,10 +1418,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72">
         <v>0.2016</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C73">
         <v>0.18993333333333332</v>
@@ -1446,10 +1446,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C74">
         <v>0.19570000000000001</v>
@@ -1460,10 +1460,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75">
         <v>0.19080000000000003</v>
@@ -1474,10 +1474,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76">
         <v>0.19129999999999997</v>
@@ -1488,10 +1488,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C77">
         <v>0.19730000000000006</v>
@@ -1502,10 +1502,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C78">
         <v>0.17660000000000001</v>
@@ -1516,10 +1516,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79">
         <v>0.1783666666666667</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C80">
         <v>0.17841176470588233</v>
@@ -1544,10 +1544,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C81">
         <v>0.18099999999999997</v>
@@ -1558,10 +1558,10 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C82">
         <v>0.17349999999999996</v>
@@ -1572,10 +1572,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C83">
         <v>0.18009999999999998</v>
@@ -1586,10 +1586,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C84">
         <v>0.18506666666666668</v>
@@ -1600,10 +1600,10 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C85">
         <v>0.1838387096774193</v>
@@ -1614,10 +1614,10 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86">
         <v>0.18163333333333334</v>
@@ -1628,10 +1628,10 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C87">
         <v>0.17343333333333336</v>
@@ -1642,10 +1642,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C88">
         <v>0.19116666666666671</v>
@@ -1656,10 +1656,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C89">
         <v>0.17786666666666665</v>
@@ -1670,10 +1670,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C90">
         <v>0.18686666666666665</v>
@@ -1684,10 +1684,10 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C91">
         <v>0.18303333333333335</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92">
         <v>0.17862500000000001</v>
@@ -1712,10 +1712,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93">
         <v>0.18443333333333331</v>
@@ -1726,10 +1726,10 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C94">
         <v>0.18650000000000003</v>
@@ -1740,10 +1740,10 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95">
         <v>0.16226666666666664</v>
@@ -1754,10 +1754,10 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96">
         <v>0.17245161290322575</v>
@@ -1768,10 +1768,10 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C97">
         <v>0.19019999999999995</v>
@@ -1782,10 +1782,10 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C98">
         <v>0.17887096774193548</v>
@@ -1796,10 +1796,10 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99">
         <v>0.18263333333333334</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100">
         <v>0.17406666666666668</v>
